--- a/src/output/student_timetables.xlsx
+++ b/src/output/student_timetables.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>mon</t>
   </si>
@@ -48,6 +48,11 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>eng
+spesh12
+eng4</t>
   </si>
   <si>
     <t>math
@@ -55,19 +60,59 @@
 math4</t>
   </si>
   <si>
+    <t>chem
+spesh44
+chem2</t>
+  </si>
+  <si>
+    <t>phy
+spesh20
+phy2</t>
+  </si>
+  <si>
+    <t>math
+spesh8
+math8</t>
+  </si>
+  <si>
+    <t>geo
+spesh68
+geo4</t>
+  </si>
+  <si>
     <t>bio
 spesh32
 bio2</t>
   </si>
   <si>
+    <t>art
+spesh72
+art2</t>
+  </si>
+  <si>
+    <t>mus
+spesh56
+mus2</t>
+  </si>
+  <si>
+    <t>phy
+spesh28
+phy6</t>
+  </si>
+  <si>
     <t>his
 spesh64
 his4</t>
   </si>
   <si>
-    <t>eng
-spesh12
-eng4</t>
+    <t>bio
+spesh36
+bio4</t>
+  </si>
+  <si>
+    <t>bio
+spesh40
+bio6</t>
   </si>
   <si>
     <t>eng
@@ -75,59 +120,14 @@
 eng8</t>
   </si>
   <si>
-    <t>geo
-spesh68
-geo4</t>
-  </si>
-  <si>
-    <t>chem
-spesh44
-chem2</t>
-  </si>
-  <si>
-    <t>bio
-spesh36
-bio4</t>
-  </si>
-  <si>
-    <t>math
-spesh8
-math8</t>
-  </si>
-  <si>
-    <t>bio
-spesh40
-bio6</t>
-  </si>
-  <si>
     <t>ict
 spesh60
 ict2</t>
   </si>
   <si>
-    <t>phy
-spesh28
-phy6</t>
-  </si>
-  <si>
-    <t>art
-spesh72
-art2</t>
-  </si>
-  <si>
-    <t>mus
-spesh56
-mus2</t>
-  </si>
-  <si>
-    <t>phy
-spesh24
-phy4</t>
-  </si>
-  <si>
-    <t>phy
-spesh20
-phy2</t>
+    <t>eng
+spesh11
+eng3</t>
   </si>
   <si>
     <t>math
@@ -135,19 +135,59 @@
 math3</t>
   </si>
   <si>
+    <t>chem
+spesh43
+chem2</t>
+  </si>
+  <si>
+    <t>phy
+spesh19
+phy2</t>
+  </si>
+  <si>
+    <t>math
+spesh7
+math7</t>
+  </si>
+  <si>
+    <t>geo
+spesh67
+geo3</t>
+  </si>
+  <si>
     <t>bio
 spesh31
 bio2</t>
   </si>
   <si>
+    <t>art
+spesh71
+art2</t>
+  </si>
+  <si>
+    <t>mus
+spesh55
+mus2</t>
+  </si>
+  <si>
+    <t>phy
+spesh27
+phy6</t>
+  </si>
+  <si>
     <t>his
 spesh63
 his3</t>
   </si>
   <si>
-    <t>eng
-spesh11
-eng3</t>
+    <t>bio
+spesh35
+bio4</t>
+  </si>
+  <si>
+    <t>bio
+spesh39
+bio6</t>
   </si>
   <si>
     <t>eng
@@ -155,59 +195,14 @@
 eng7</t>
   </si>
   <si>
-    <t>geo
-spesh67
-geo3</t>
-  </si>
-  <si>
-    <t>chem
-spesh43
-chem2</t>
-  </si>
-  <si>
-    <t>bio
-spesh35
-bio4</t>
-  </si>
-  <si>
-    <t>math
-spesh7
-math7</t>
-  </si>
-  <si>
-    <t>bio
-spesh39
-bio6</t>
-  </si>
-  <si>
     <t>ict
 spesh59
 ict2</t>
   </si>
   <si>
-    <t>phy
-spesh27
-phy6</t>
-  </si>
-  <si>
-    <t>art
-spesh71
-art2</t>
-  </si>
-  <si>
-    <t>mus
-spesh55
-mus2</t>
-  </si>
-  <si>
-    <t>phy
-spesh23
-phy4</t>
-  </si>
-  <si>
-    <t>phy
-spesh19
-phy2</t>
+    <t>eng
+spesh10
+eng2</t>
   </si>
   <si>
     <t>math
@@ -215,19 +210,59 @@
 math2</t>
   </si>
   <si>
+    <t>chem
+spesh42
+chem1</t>
+  </si>
+  <si>
+    <t>phy
+spesh18
+phy1</t>
+  </si>
+  <si>
+    <t>math
+spesh6
+math6</t>
+  </si>
+  <si>
+    <t>geo
+spesh66
+geo2</t>
+  </si>
+  <si>
     <t>bio
 spesh30
 bio1</t>
   </si>
   <si>
+    <t>art
+spesh70
+art1</t>
+  </si>
+  <si>
+    <t>mus
+spesh54
+mus1</t>
+  </si>
+  <si>
+    <t>phy
+spesh26
+phy5</t>
+  </si>
+  <si>
     <t>his
 spesh62
 his2</t>
   </si>
   <si>
-    <t>eng
-spesh10
-eng2</t>
+    <t>bio
+spesh34
+bio3</t>
+  </si>
+  <si>
+    <t>bio
+spesh38
+bio5</t>
   </si>
   <si>
     <t>eng
@@ -235,59 +270,14 @@
 eng6</t>
   </si>
   <si>
-    <t>geo
-spesh66
-geo2</t>
-  </si>
-  <si>
-    <t>chem
-spesh42
-chem1</t>
-  </si>
-  <si>
-    <t>bio
-spesh34
-bio3</t>
-  </si>
-  <si>
-    <t>math
-spesh6
-math6</t>
-  </si>
-  <si>
-    <t>bio
-spesh38
-bio5</t>
-  </si>
-  <si>
     <t>ict
 spesh58
 ict1</t>
   </si>
   <si>
-    <t>phy
-spesh26
-phy5</t>
-  </si>
-  <si>
-    <t>art
-spesh70
-art1</t>
-  </si>
-  <si>
-    <t>mus
-spesh54
-mus1</t>
-  </si>
-  <si>
-    <t>phy
-spesh22
-phy3</t>
-  </si>
-  <si>
-    <t>phy
-spesh18
-phy1</t>
+    <t>eng
+spesh9
+eng1</t>
   </si>
   <si>
     <t>math
@@ -295,19 +285,59 @@
 math1</t>
   </si>
   <si>
+    <t>chem
+spesh41
+chem1</t>
+  </si>
+  <si>
+    <t>phy
+spesh17
+phy1</t>
+  </si>
+  <si>
+    <t>math
+spesh5
+math5</t>
+  </si>
+  <si>
+    <t>geo
+spesh65
+geo1</t>
+  </si>
+  <si>
     <t>bio
 spesh29
 bio1</t>
   </si>
   <si>
+    <t>art
+spesh69
+art1</t>
+  </si>
+  <si>
+    <t>mus
+spesh53
+mus1</t>
+  </si>
+  <si>
+    <t>phy
+spesh25
+phy5</t>
+  </si>
+  <si>
     <t>his
 spesh61
 his1</t>
   </si>
   <si>
-    <t>eng
-spesh9
-eng1</t>
+    <t>bio
+spesh33
+bio3</t>
+  </si>
+  <si>
+    <t>bio
+spesh37
+bio5</t>
   </si>
   <si>
     <t>eng
@@ -315,59 +345,9 @@
 eng5</t>
   </si>
   <si>
-    <t>geo
-spesh65
-geo1</t>
-  </si>
-  <si>
-    <t>chem
-spesh41
-chem1</t>
-  </si>
-  <si>
-    <t>bio
-spesh33
-bio3</t>
-  </si>
-  <si>
-    <t>math
-spesh5
-math5</t>
-  </si>
-  <si>
-    <t>bio
-spesh37
-bio5</t>
-  </si>
-  <si>
     <t>ict
 spesh57
 ict1</t>
-  </si>
-  <si>
-    <t>phy
-spesh25
-phy5</t>
-  </si>
-  <si>
-    <t>art
-spesh69
-art1</t>
-  </si>
-  <si>
-    <t>mus
-spesh53
-mus1</t>
-  </si>
-  <si>
-    <t>phy
-spesh21
-phy3</t>
-  </si>
-  <si>
-    <t>phy
-spesh17
-phy1</t>
   </si>
 </sst>
 </file>
@@ -762,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -779,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -802,10 +782,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -822,10 +802,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -839,13 +819,13 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -883,19 +863,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -903,19 +883,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -923,19 +903,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -943,19 +923,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -963,19 +943,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1013,19 +993,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -1033,19 +1013,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -1053,19 +1033,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -1073,19 +1053,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -1093,19 +1073,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1143,19 +1123,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -1163,19 +1143,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -1183,19 +1163,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -1203,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -1223,19 +1203,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1262,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1299,13 +1279,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -1322,10 +1302,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -1342,10 +1322,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -1359,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/student_timetables.xlsx
+++ b/src/output/student_timetables.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="Student0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -46,69 +46,69 @@
     <t>p5</t>
   </si>
   <si>
+    <t>geography
+T55
+Ge5</t>
+  </si>
+  <si>
+    <t>music
+T40
+Mu5</t>
+  </si>
+  <si>
+    <t>physics
+T25
+Ph5</t>
+  </si>
+  <si>
+    <t>chemistry
+T35
+Ch5</t>
+  </si>
+  <si>
+    <t>biology
+T30
+Bi5</t>
+  </si>
+  <si>
+    <t>english
+T20
+En10</t>
+  </si>
+  <si>
+    <t>DT
+T65
+Dt5</t>
+  </si>
+  <si>
+    <t>ICT
+T45
+Ic5</t>
+  </si>
+  <si>
+    <t>maths
+T5
+Ma5</t>
+  </si>
+  <si>
+    <t>english
+T15
+En5</t>
+  </si>
+  <si>
+    <t>maths
+T10
+Ma10</t>
+  </si>
+  <si>
     <t>art
-T59
-Ar4</t>
+T60
+Ar5</t>
   </si>
   <si>
     <t>history
-T49
-Hi4</t>
-  </si>
-  <si>
-    <t>english
-T19
-En9</t>
-  </si>
-  <si>
-    <t>ICT
-T44
-Ic4</t>
-  </si>
-  <si>
-    <t>maths
-T9
-Ma9</t>
-  </si>
-  <si>
-    <t>chemistry
-T34
-Ch4</t>
-  </si>
-  <si>
-    <t>geography
-T54
-Ge4</t>
-  </si>
-  <si>
-    <t>music
-T39
-Mu4</t>
-  </si>
-  <si>
-    <t>DT
-T64
-Dt4</t>
-  </si>
-  <si>
-    <t>maths
-T4
-Ma4</t>
-  </si>
-  <si>
-    <t>physics
-T24
-Ph4</t>
-  </si>
-  <si>
-    <t>biology
-T29
-Bi4</t>
-  </si>
-  <si>
-    <t>english
-T14
-En4</t>
+T50
+Hi5</t>
   </si>
 </sst>
 </file>
@@ -470,9 +470,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="70" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1">
+    <row r="1" spans="1:6" ht="70" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1">
+    <row r="2" spans="1:6" ht="70" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,16 +500,16 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1">
+    <row r="3" spans="1:6" ht="70" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,19 +517,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1">
+    <row r="4" spans="1:6" ht="70" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,19 +537,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" customHeight="1">
+    <row r="5" spans="1:6" ht="70" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -557,19 +557,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" customHeight="1">
+    <row r="6" spans="1:6" ht="70" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,13 +577,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
